--- a/CFISD_Covid_App/raw_data/CFISD_Return_to_School_Data.xlsx
+++ b/CFISD_Covid_App/raw_data/CFISD_Return_to_School_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sarah/Desktop/BigData/CFISD_Covid_Analysis/CFISD_Covid_App/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A937184-A8A1-A842-B49C-E6F2E62E6999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B271B1E-DDEF-2D4B-A556-D73DF8C8A454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20240" windowHeight="14320" activeTab="2" xr2:uid="{31B19651-E731-A149-A809-549908E306A0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20240" windowHeight="14320" activeTab="4" xr2:uid="{31B19651-E731-A149-A809-549908E306A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2009,12 +2009,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Percent of High School Students Learning On-Campus</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -2410,14 +2410,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Percent of Middle School Students</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Learning On-Campus</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3258,7 +3258,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>On-Campus Enrollment Increased Throughout</a:t>
+              <a:t>Percent of Students On Campus Increased Throughout</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
@@ -3268,6 +3268,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13523962465218162"/>
+          <c:y val="3.5608308605341248E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3544,6 +3552,77 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>2020-21</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Marking Period</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39895966691213963"/>
+              <c:y val="0.92959183673469392"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3566,7 +3645,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3596,14 +3675,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Percentage of Students Choosing In-Person School</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3612,7 +3751,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3640,7 +3779,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3704,6 +3843,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -7780,16 +7920,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7815,6 +7955,52 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06835</cdr:x>
+      <cdr:y>0.08163</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.14209</cdr:x>
+      <cdr:y>0.18659</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514F9A36-A28F-7041-A8A7-C5829BE02F1F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="482600" y="355600"/>
+          <a:ext cx="520700" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>%</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11881,8 +12067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58395428-2AC2-4A44-8808-6FA90B61866B}">
   <dimension ref="A2:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12626,8 +12812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D825445-905E-474F-8801-184962374A33}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
